--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,39 +46,36 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
@@ -88,60 +85,57 @@
     <t>difficult</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>money</t>
+    <t>would</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>price</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>price</t>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
@@ -160,7 +154,7 @@
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>thank</t>
   </si>
   <si>
     <t>great</t>
@@ -172,10 +166,10 @@
     <t>loves</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
   </si>
   <si>
     <t>loved</t>
@@ -548,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>0.875</v>
@@ -667,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,19 +679,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>0.7076923076923077</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7526881720430108</v>
+        <v>0.78125</v>
       </c>
       <c r="C5">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.6881720430107527</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7464788732394366</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.660377358490566</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L6">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.734375</v>
+        <v>0.7087378640776699</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7281553398058253</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C8">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.3852459016393442</v>
+        <v>0.3680327868852459</v>
       </c>
       <c r="L8">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="M8">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>750</v>
+        <v>771</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6554054054054054</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.3371592539454806</v>
+        <v>0.3285509325681492</v>
       </c>
       <c r="L9">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M9">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6218487394957983</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C10">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.2780082987551867</v>
+        <v>0.3008298755186722</v>
       </c>
       <c r="L10">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="M10">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6181818181818182</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.275</v>
+        <v>0.2650602409638554</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>87</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6041666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.2289156626506024</v>
+        <v>0.25</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1111,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5072463768115942</v>
+        <v>0.5101449275362319</v>
       </c>
       <c r="C13">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D13">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K13">
         <v>0.2018348623853211</v>
@@ -1188,7 +1182,7 @@
         <v>66</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K14">
         <v>0.1746031746031746</v>
@@ -1217,13 +1211,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4761904761904762</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1235,31 +1229,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.1008771929824561</v>
+        <v>0.112182296231376</v>
       </c>
       <c r="L15">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="M15">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="N15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1025</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,13 +1261,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4457831325301205</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1285,31 +1279,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.03961038961038961</v>
+        <v>0.05</v>
       </c>
       <c r="L16">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="M16">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="N16">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O16">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>1479</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1317,13 +1311,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4210526315789473</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C17">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1335,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1343,13 +1337,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3707865168539326</v>
+        <v>0.3359375</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1361,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1369,13 +1363,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3601895734597156</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="C19">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D19">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1387,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1395,13 +1389,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3514851485148515</v>
+        <v>0.2843601895734597</v>
       </c>
       <c r="C20">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D20">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1413,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1421,13 +1415,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.328125</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1439,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1447,13 +1441,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3076923076923077</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1465,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>81</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1473,13 +1467,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2474226804123711</v>
+        <v>0.2310126582278481</v>
       </c>
       <c r="C23">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D23">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1491,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>146</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1499,13 +1493,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.213768115942029</v>
+        <v>0.2101449275362319</v>
       </c>
       <c r="C24">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1517,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1525,13 +1519,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2056962025316456</v>
+        <v>0.1958456973293768</v>
       </c>
       <c r="C25">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="D25">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1543,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>251</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1551,13 +1545,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2025316455696203</v>
+        <v>0.1867088607594937</v>
       </c>
       <c r="C26">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D26">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1569,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1577,13 +1571,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1958456973293768</v>
+        <v>0.1609195402298851</v>
       </c>
       <c r="C27">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="D27">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1595,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>542</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1603,13 +1597,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.185</v>
+        <v>0.1585903083700441</v>
       </c>
       <c r="C28">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D28">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1621,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>163</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1629,13 +1623,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1740088105726872</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C29">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1647,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>375</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1655,13 +1649,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1714285714285714</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1673,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>145</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1681,25 +1675,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1682242990654206</v>
+        <v>0.1214574898785425</v>
       </c>
       <c r="C31">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>178</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1707,25 +1701,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1527377521613833</v>
+        <v>0.1178082191780822</v>
       </c>
       <c r="C32">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D32">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E32">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1733,25 +1727,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1169354838709677</v>
+        <v>0.07084019769357495</v>
       </c>
       <c r="C33">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D33">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>219</v>
+        <v>564</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1759,7 +1753,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1123595505617977</v>
+        <v>0.066815144766147</v>
       </c>
       <c r="C34">
         <v>30</v>
@@ -1777,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>237</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1785,77 +1779,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.09340659340659341</v>
+        <v>0.04292929292929293</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E35">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F35">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.07084019769357495</v>
-      </c>
-      <c r="C36">
-        <v>43</v>
-      </c>
-      <c r="D36">
-        <v>44</v>
-      </c>
-      <c r="E36">
-        <v>0.02</v>
-      </c>
-      <c r="F36">
-        <v>0.98</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.0430379746835443</v>
-      </c>
-      <c r="C37">
-        <v>34</v>
-      </c>
-      <c r="D37">
-        <v>38</v>
-      </c>
-      <c r="E37">
-        <v>0.11</v>
-      </c>
-      <c r="F37">
-        <v>0.89</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
